--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -227,6 +227,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -39606,100 +39674,100 @@
         </is>
       </c>
       <c r="B2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="C2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="D2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="F2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="G2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="H2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="I2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="J2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="K2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="L2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="M2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="N2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="O2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="P2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="R2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="S2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="T2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="U2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="V2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="W2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="X2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="29" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" s="30">
